--- a/biology/Botanique/Lomelosia/Lomelosia.xlsx
+++ b/biology/Botanique/Lomelosia/Lomelosia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lomelosia est un genre de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981)[1], de la famille des Caprifoliaceae selon la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lomelosia est un genre de plantes herbacées vivaces de la famille des Dipsacaceae selon la classification classique de Cronquist (1981), de la famille des Caprifoliaceae selon la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (1 avril 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (1 avril 2018) :
 Lomelosia argentea
 Lomelosia brachiata
 Lomelosia calocephala
@@ -526,7 +540,7 @@
 Lomelosia simplex
 Lomelosia songarica
 Lomelosia stellata
-Selon ITIS      (1 avril 2018)[3] :
+Selon ITIS      (1 avril 2018) :
 Lomelosia caucasica (M. Bieb.) Greuter &amp; Burdet
 Lomelosia palaestina (L.) Raf.
 Lomelosia stellata (L.) Raf.</t>
